--- a/public/static/excel/template/上传部门员工信息模板.xlsx
+++ b/public/static/excel/template/上传部门员工信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>归属饭堂（多个饭堂用|分隔）</t>
   </si>
@@ -40,6 +40,9 @@
     <t>人员状态（启用/停用）</t>
   </si>
   <si>
+    <t>生日</t>
+  </si>
+  <si>
     <t>大饭堂|小饭堂</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>启用</t>
+  </si>
+  <si>
+    <t>1990-010-01</t>
   </si>
 </sst>
 </file>
@@ -63,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,37 +84,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,52 +122,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +136,83 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -183,39 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,25 +236,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,157 +356,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,8 +433,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,36 +459,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,24 +480,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -521,153 +488,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="29.9017857142857" customWidth="1"/>
     <col min="2" max="2" width="16.6607142857143" customWidth="1"/>
@@ -1009,9 +1015,10 @@
     <col min="6" max="6" width="15.7678571428571" customWidth="1"/>
     <col min="7" max="7" width="12.9375" customWidth="1"/>
     <col min="8" max="8" width="22.1607142857143" customWidth="1"/>
+    <col min="9" max="9" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,31 +1043,37 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>18956225230</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/excel/template/上传部门员工信息模板.xlsx
+++ b/public/static/excel/template/上传部门员工信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14600"/>
+    <workbookView windowHeight="17100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
-    <t>归属饭堂（多个饭堂用|分隔）</t>
-  </si>
-  <si>
-    <t>归属部门</t>
-  </si>
-  <si>
-    <t>人员类型</t>
-  </si>
-  <si>
-    <t>员工编号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>手机号码</t>
+    <t>归属饭堂（多个饭堂用|分隔）*</t>
+  </si>
+  <si>
+    <t>归属部门*</t>
+  </si>
+  <si>
+    <t>人员类型*</t>
+  </si>
+  <si>
+    <t>员工编号*</t>
+  </si>
+  <si>
+    <t>姓名*</t>
+  </si>
+  <si>
+    <t>手机号码*</t>
   </si>
   <si>
     <t>卡号</t>
   </si>
   <si>
-    <t>人员状态（启用/停用）</t>
+    <t>人员状态（启用/停用）*</t>
   </si>
   <si>
     <t>生日</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,14 +84,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,123 +183,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,25 +242,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +374,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,133 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,8 +433,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,6 +444,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,6 +474,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,192 +527,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,18 +1003,18 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="29.9017857142857" customWidth="1"/>
+    <col min="1" max="1" width="32.7321428571429" customWidth="1"/>
     <col min="2" max="2" width="16.6607142857143" customWidth="1"/>
     <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
     <col min="4" max="4" width="19.0357142857143" customWidth="1"/>
     <col min="6" max="6" width="15.7678571428571" customWidth="1"/>
     <col min="7" max="7" width="12.9375" customWidth="1"/>
-    <col min="8" max="8" width="22.1607142857143" customWidth="1"/>
+    <col min="8" max="8" width="25.5982142857143" customWidth="1"/>
     <col min="9" max="9" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>

--- a/public/static/excel/template/上传部门员工信息模板.xlsx
+++ b/public/static/excel/template/上传部门员工信息模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>归属饭堂（多个饭堂用|分隔）*</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>启用</t>
-  </si>
-  <si>
-    <t>1990-010-01</t>
   </si>
 </sst>
 </file>
@@ -69,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -97,6 +94,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -105,8 +109,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +140,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -127,17 +202,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,82 +223,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,21 +446,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -474,30 +456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +477,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,158 +494,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
@@ -1072,8 +1072,8 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
+      <c r="I2" s="1">
+        <v>33147</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/excel/template/上传部门员工信息模板.xlsx
+++ b/public/static/excel/template/上传部门员工信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17100"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>归属饭堂（多个饭堂用|分隔）*</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>生日</t>
+  </si>
+  <si>
+    <t>人脸识别ID</t>
   </si>
   <si>
     <t>大饭堂|小饭堂</t>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,68 +84,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +98,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -174,6 +161,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -181,46 +184,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,67 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,115 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,8 +433,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +463,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,15 +489,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,10 +1003,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
@@ -1016,9 +1019,10 @@
     <col min="7" max="7" width="12.9375" customWidth="1"/>
     <col min="8" max="8" width="25.5982142857143" customWidth="1"/>
     <col min="9" max="9" width="15.4732142857143" customWidth="1"/>
+    <col min="10" max="10" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,34 +1050,40 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>18956225230</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
         <v>33147</v>
+      </c>
+      <c r="J2">
+        <v>11111</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/excel/template/上传部门员工信息模板.xlsx
+++ b/public/static/excel/template/上传部门员工信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>注意：1、带"*"信息为必填项；
+          2、若企业开启刷脸消费功能，则可填写人脸ID，否则无需填写；
+          3、若企业开启刷卡消费功能，则可填写卡号与生日，否则无需填写；
+          4、开启刷卡消费功能后，若需填写卡号时必须填写生日，否则无法导入。</t>
+  </si>
   <si>
     <t>归属饭堂（多个饭堂用|分隔）*</t>
   </si>
@@ -69,12 +75,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,8 +89,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,13 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -114,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,16 +156,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,15 +189,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,51 +227,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,8 +446,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,32 +481,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,9 +502,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,154 +545,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1003,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="32.7321428571429" customWidth="1"/>
     <col min="2" max="2" width="16.6607142857143" customWidth="1"/>
@@ -1022,71 +1041,79 @@
     <col min="10" max="10" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="82" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
         <v>123456</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>18956225230</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3">
         <v>33147</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>11111</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/public/static/excel/template/上传部门员工信息模板.xlsx
+++ b/public/static/excel/template/上传部门员工信息模板.xlsx
@@ -16,9 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
-    <t>注意：1、带"*"信息为必填项；
-          2、若企业开启刷脸消费功能，则可填写人脸ID，否则无需填写；
-          3、若企业开启刷卡消费功能，则可填写卡号与生日，否则无需填写；
+    <t>注意：1、带"*"信息为必填项。
+          2、若企业开启刷脸消费功能，则可填写人脸ID，否则无需填写。
+          3、若企业开启刷卡消费功能，则可填写卡号与生日，否则无需填写。
           4、开启刷卡消费功能后，若需填写卡号时必须填写生日，否则无法导入。</t>
   </si>
   <si>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,6 +104,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -112,14 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,9 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,93 +217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,19 +255,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,109 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,43 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,26 +446,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,11 +499,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,168 +540,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>

--- a/public/static/excel/template/上传部门员工信息模板.xlsx
+++ b/public/static/excel/template/上传部门员工信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14860"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
-    <t>注意：1、带"*"信息为必填项。
-          2、若企业开启刷脸消费功能，则可填写人脸ID，否则无需填写。
-          3、若企业开启刷卡消费功能，则可填写卡号与生日，否则无需填写。
-          4、开启刷卡消费功能后，若需填写卡号时必须填写生日，否则无法导入。</t>
+    <t>注意：
+1、带“*”信息为必填项；
+2、若企业开启刷卡消费功能，则必须填写生日，否则无需填写生日与卡号；
+3、若企业开启刷脸消费功能，则可填写人脸ID，否则无需填写。</t>
   </si>
   <si>
     <t>归属饭堂（多个饭堂用|分隔）*</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,6 +96,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,31 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,16 +142,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +179,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -179,17 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,43 +239,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,43 +249,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,139 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,21 +453,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -478,6 +463,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,46 +526,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,148 +545,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>

--- a/public/static/excel/template/上传部门员工信息模板.xlsx
+++ b/public/static/excel/template/上传部门员工信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>人员类型*</t>
   </si>
   <si>
-    <t>员工编号*</t>
+    <t>员工编号</t>
   </si>
   <si>
     <t>姓名*</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,6 +96,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -104,10 +118,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,8 +134,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,12 +182,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -156,16 +217,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,67 +239,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,49 +249,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,133 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,30 +448,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,11 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,153 +514,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
